--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -1850,7 +1850,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
